--- a/Dataset/conditions/Cerberus_Diego.xlsx
+++ b/Dataset/conditions/Cerberus_Diego.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D78A1-52EB-45B1-BA9F-98F210593357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE731E-EF52-4C0B-B525-98E295CA6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2872C84-50D0-4172-875D-510D1429FDA9}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -276,12 +282,14 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -300,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,7 +607,7 @@
   <dimension ref="C2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,37 +633,37 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
@@ -666,7 +674,7 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -674,7 +682,7 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
@@ -685,7 +693,7 @@
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -693,13 +701,13 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>0.23157</v>
       </c>
     </row>
@@ -707,13 +715,13 @@
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
@@ -724,7 +732,7 @@
       <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -732,7 +740,7 @@
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>60</v>
       </c>
     </row>
@@ -740,7 +748,7 @@
       <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>23</v>
       </c>
     </row>
